--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D413573-99FC-42AE-AD3C-594C8B91CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E3A90-E3FF-43CD-840B-7A089302208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -675,6 +675,14 @@
 1:需審查/確認
 2:為凍結名單/未確定名單</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理時間</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -872,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,6 +1011,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1344,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1702,28 +1713,28 @@
         <v>12</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>76</v>
+        <v>157</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="28">
-        <v>8</v>
-      </c>
-      <c r="G21" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="E21" s="16">
+        <v>6</v>
+      </c>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="29">
         <v>13</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>55</v>
@@ -1733,35 +1744,33 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="97.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="29">
         <v>14</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="29">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32.4">
+        <v>28</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="28">
+        <v>8</v>
+      </c>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="97.2">
       <c r="A24" s="29">
         <v>15</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>83</v>
+      <c r="B24" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>19</v>
@@ -1769,48 +1778,48 @@
       <c r="E24" s="29">
         <v>1</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="307.8">
+      <c r="G24" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32.4">
       <c r="A25" s="29">
         <v>16</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="29">
-        <v>2</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="307.8">
       <c r="A26" s="29">
         <v>17</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>38</v>
+        <v>102</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="E26" s="29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1818,19 +1827,19 @@
         <v>18</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="28">
-        <v>8</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>140</v>
+        <v>38</v>
+      </c>
+      <c r="E27" s="29">
+        <v>6</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1838,10 +1847,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>55</v>
@@ -1850,7 +1859,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1858,10 +1867,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>55</v>
@@ -1870,155 +1879,159 @@
         <v>8</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="226.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="29">
         <v>21</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="29">
-        <v>2</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>142</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="28">
+        <v>8</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="226.8">
       <c r="A31" s="29">
         <v>22</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="29">
-        <v>100</v>
-      </c>
-      <c r="G31" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="29">
         <v>23</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" s="29">
-        <v>10</v>
-      </c>
-      <c r="G32" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="29">
         <v>24</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="28">
-        <v>8</v>
-      </c>
-      <c r="G33" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="29">
+        <v>10</v>
+      </c>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="29">
         <v>25</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="29">
-        <v>1</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="64.8">
+        <v>60</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="28">
+        <v>8</v>
+      </c>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="29">
         <v>26</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
       </c>
-      <c r="G35" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="64.8">
       <c r="A36" s="29">
         <v>27</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E36" s="29">
-        <v>6</v>
-      </c>
-      <c r="G36" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="29">
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="29">
+        <v>6</v>
+      </c>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7">
@@ -2026,17 +2039,15 @@
         <v>29</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="29">
-        <v>6</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="28"/>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7">
@@ -2044,16 +2055,34 @@
         <v>30</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="29">
+        <v>6</v>
+      </c>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="16">
+        <v>31</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C40" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D40" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="G39" s="20"/>
+      <c r="E40" s="28"/>
+      <c r="G40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E3A90-E3FF-43CD-840B-7A089302208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB458A8B-819E-4382-82F8-BF97FE80046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="161">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -683,6 +683,13 @@
   <si>
     <t>處理時間</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每筆扣款限額</t>
   </si>
 </sst>
 </file>
@@ -880,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,6 +1008,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1014,7 +1024,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1355,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1373,10 +1383,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="3" t="s">
         <v>143</v>
       </c>
@@ -1388,8 +1398,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="8" t="s">
         <v>111</v>
       </c>
@@ -1401,10 +1411,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="12" t="s">
         <v>136</v>
       </c>
@@ -1416,10 +1426,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1427,10 +1437,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="18" t="s">
         <v>63</v>
       </c>
@@ -1440,10 +1450,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="25" t="s">
         <v>93</v>
       </c>
@@ -1453,10 +1463,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="18" t="s">
         <v>64</v>
       </c>
@@ -1466,10 +1476,10 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="18" t="s">
         <v>65</v>
       </c>
@@ -1674,16 +1684,19 @@
       <c r="A19" s="29">
         <v>10</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="28">
+      <c r="B19" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="29">
+        <v>8</v>
+      </c>
+      <c r="F19" s="16">
         <v>2</v>
       </c>
       <c r="G19" s="30"/>
@@ -1693,66 +1706,66 @@
         <v>11</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="28">
-        <v>8</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>137</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="29">
         <v>12</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>158</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="16">
-        <v>6</v>
-      </c>
-      <c r="G21" s="44"/>
+        <v>55</v>
+      </c>
+      <c r="E21" s="28">
+        <v>8</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="29">
         <v>13</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>76</v>
+        <v>157</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="28">
-        <v>8</v>
-      </c>
-      <c r="G22" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="E22" s="16">
+        <v>6</v>
+      </c>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="29">
         <v>14</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>55</v>
@@ -1762,35 +1775,33 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="97.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="29">
         <v>15</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="29">
-        <v>1</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32.4">
+        <v>28</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="28">
+        <v>8</v>
+      </c>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="97.2">
       <c r="A25" s="29">
         <v>16</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>83</v>
+      <c r="B25" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>19</v>
@@ -1798,48 +1809,48 @@
       <c r="E25" s="29">
         <v>1</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="307.8">
+      <c r="G25" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32.4">
       <c r="A26" s="29">
         <v>17</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="29">
-        <v>2</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="307.8">
       <c r="A27" s="29">
         <v>18</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>38</v>
+        <v>102</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="E27" s="29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1847,19 +1858,19 @@
         <v>19</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="28">
-        <v>8</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>140</v>
+        <v>38</v>
+      </c>
+      <c r="E28" s="29">
+        <v>6</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1867,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>55</v>
@@ -1879,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1887,10 +1898,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>55</v>
@@ -1899,155 +1910,159 @@
         <v>8</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="226.8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="29">
         <v>22</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="29">
-        <v>2</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>142</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="28">
+        <v>8</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="226.8">
       <c r="A32" s="29">
         <v>23</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="29">
-        <v>100</v>
-      </c>
-      <c r="G32" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="29">
         <v>24</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33" s="29">
-        <v>10</v>
-      </c>
-      <c r="G33" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="29">
         <v>25</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="28">
-        <v>8</v>
-      </c>
-      <c r="G34" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="29">
+        <v>10</v>
+      </c>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="29">
         <v>26</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="29">
-        <v>1</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="64.8">
+        <v>60</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="28">
+        <v>8</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="29">
         <v>27</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E36" s="29">
         <v>1</v>
       </c>
-      <c r="G36" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="64.8">
       <c r="A37" s="29">
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E37" s="29">
-        <v>6</v>
-      </c>
-      <c r="G37" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="29">
         <v>29</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="29">
+        <v>6</v>
+      </c>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7">
@@ -2055,34 +2070,50 @@
         <v>30</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="28"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="29">
+        <v>31</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C40" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E40" s="29">
         <v>6</v>
       </c>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="16">
-        <v>31</v>
-      </c>
-      <c r="B40" s="25" t="s">
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="29">
+        <v>32</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C41" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D41" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="G40" s="20"/>
+      <c r="E41" s="28"/>
+      <c r="G41" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB458A8B-819E-4382-82F8-BF97FE80046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB8343E-71F2-454F-B6EE-2C9B711DDFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,8 +627,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.AuthErrorCode
-空白:未授權
+    <t>CdCode.RelationCode
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.Sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理時間</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每筆扣款限額</t>
+  </si>
+  <si>
+    <t>空白:未授權
+'CdCode.AuthErrorCode
 00:成功
 03:已終止代繳
 06:凍結警示戶
@@ -647,49 +690,6 @@
 91:期限未扣款
 98:其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.RelationCode
-00:本人
-01:夫
-02:妻
-03:父
-04:母
-05:子
-06:女
-07:兄
-08:弟
-09:姊
-10:妹
-11:姪子
-99:其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.Sex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.AmlCheckItem
-0:非可疑名單/已完成名單確認
-1:需審查/確認
-2:為凍結名單/未確定名單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessTime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理時間</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>LimitAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每筆扣款限額</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,10 +903,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -918,9 +918,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -933,9 +930,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,7 +942,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,9 +954,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -987,9 +978,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1011,6 +999,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1022,9 +1013,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1367,26 +1355,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="4" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
         <v>143</v>
       </c>
@@ -1398,97 +1386,97 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
+      <c r="D8" s="12"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1507,613 +1495,613 @@
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
-      <c r="A10" s="34">
+    <row r="10" spans="1:7">
+      <c r="A10" s="30">
         <v>1</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="29">
+      <c r="A11" s="26">
         <v>2</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="25">
         <v>7</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="29">
+      <c r="A12" s="26">
         <v>3</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <v>3</v>
       </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="48.6">
-      <c r="A13" s="29">
+      <c r="A13" s="26">
         <v>4</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <v>1</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="29">
+      <c r="A14" s="26">
         <v>5</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="25">
         <v>8</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="27" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="113.4">
-      <c r="A15" s="29">
+      <c r="A15" s="26">
         <v>6</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="26">
         <v>1</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="29" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6">
-      <c r="A16" s="29">
+      <c r="A16" s="26">
         <v>7</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="25">
         <v>1</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="29" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29">
+      <c r="A17" s="26">
         <v>8</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>14</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="29">
+      <c r="A18" s="26">
         <v>9</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="25">
         <v>10</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29">
+      <c r="A19" s="26">
         <v>10</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="D19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="26">
+        <v>8</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2</v>
+      </c>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="26">
+        <v>11</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="25">
+        <v>2</v>
+      </c>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="26">
+        <v>12</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="25">
+        <v>8</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="26">
+        <v>13</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="14">
+        <v>6</v>
+      </c>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="26">
+        <v>14</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="25">
+        <v>8</v>
+      </c>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="26">
+        <v>15</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="25">
+        <v>8</v>
+      </c>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" ht="97.2">
+      <c r="A25" s="26">
+        <v>16</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="26">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32.4">
+      <c r="A26" s="26">
+        <v>17</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="307.8">
+      <c r="A27" s="26">
+        <v>18</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="26">
+        <v>2</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="29">
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="26">
+        <v>19</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="26">
+        <v>6</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="26">
+        <v>20</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="25">
         <v>8</v>
       </c>
-      <c r="F19" s="16">
+      <c r="G29" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="26">
+        <v>21</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="25">
+        <v>8</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="26">
+        <v>22</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="25">
+        <v>8</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="226.8">
+      <c r="A32" s="26">
+        <v>23</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="26">
         <v>2</v>
       </c>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="29">
-        <v>11</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="31" t="s">
+      <c r="G32" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="26">
+        <v>24</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="26">
+        <v>100</v>
+      </c>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="26">
+        <v>25</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="26">
+        <v>10</v>
+      </c>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="26">
+        <v>26</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="25">
+        <v>8</v>
+      </c>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="26">
         <v>27</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="B36" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="28">
-        <v>2</v>
-      </c>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="29">
-        <v>12</v>
-      </c>
-      <c r="B21" s="26" t="s">
+      <c r="E36" s="26">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="64.8">
+      <c r="A37" s="26">
+        <v>28</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="26">
+        <v>1</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="26">
+        <v>29</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="26">
+        <v>6</v>
+      </c>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="26">
+        <v>30</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="26">
         <v>31</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="28">
-        <v>8</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="29">
-        <v>13</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="B40" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="26">
         <v>6</v>
       </c>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="29">
-        <v>14</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="28">
-        <v>8</v>
-      </c>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="29">
-        <v>15</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="26">
         <v>32</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="28">
-        <v>8</v>
-      </c>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" ht="97.2">
-      <c r="A25" s="29">
-        <v>16</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="29">
-        <v>1</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32.4">
-      <c r="A26" s="29">
-        <v>17</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="29">
-        <v>1</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="307.8">
-      <c r="A27" s="29">
-        <v>18</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="29">
-        <v>2</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="29">
-        <v>19</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="29">
-        <v>6</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="29">
-        <v>20</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="28">
-        <v>8</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="29">
-        <v>21</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="28">
-        <v>8</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="29">
+      <c r="B41" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="28">
-        <v>8</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="226.8">
-      <c r="A32" s="29">
-        <v>23</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="29">
-        <v>2</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="29">
-        <v>24</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="29">
-        <v>100</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="29">
-        <v>25</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="29">
-        <v>10</v>
-      </c>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="29">
-        <v>26</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="28">
-        <v>8</v>
-      </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="29">
-        <v>27</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="29">
-        <v>1</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="64.8">
-      <c r="A37" s="29">
-        <v>28</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="29">
-        <v>1</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="29">
-        <v>29</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="29">
-        <v>6</v>
-      </c>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="29">
-        <v>30</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="27" t="s">
+      <c r="C41" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="29">
-        <v>31</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="29">
-        <v>6</v>
-      </c>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="29">
-        <v>32</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="G41" s="20"/>
+      <c r="E41" s="25"/>
+      <c r="G41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2204,7 +2192,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="1" t="s">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB8343E-71F2-454F-B6EE-2C9B711DDFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87676E80-5494-465C-AFAF-337CE0B441F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="165">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -254,10 +254,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>第三人性別</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Index4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -437,9 +433,6 @@
   </si>
   <si>
     <t>授權方式</t>
-  </si>
-  <si>
-    <t>統一編號</t>
   </si>
   <si>
     <t>異動日期</t>
@@ -641,10 +634,6 @@
 10:妹
 11:姪子
 99:其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.Sex</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -689,6 +678,36 @@
 19:編號非英數
 91:期限未扣款
 98:其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳戶戶名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分證字號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人性別
+CdCode.Sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號
+郵局的扣款人ID可能與借款人ID不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣款人ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1033,9 +1052,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1073,9 +1092,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1108,26 +1127,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1160,26 +1162,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1355,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1376,10 +1361,10 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1389,7 +1374,7 @@
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1404,7 +1389,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1430,7 +1415,7 @@
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -1443,7 +1428,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -1456,7 +1441,7 @@
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -1465,11 +1450,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="5"/>
@@ -1504,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -1524,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>38</v>
@@ -1539,13 +1524,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="26">
         <v>3</v>
@@ -1560,7 +1545,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>19</v>
@@ -1569,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1577,10 +1562,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>55</v>
@@ -1589,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="113.4">
@@ -1609,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6">
@@ -1617,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>26</v>
@@ -1629,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1640,7 +1625,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>19</v>
@@ -1650,7 +1635,7 @@
       </c>
       <c r="G17" s="27"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="32.4">
       <c r="A18" s="26">
         <v>9</v>
       </c>
@@ -1658,7 +1643,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>19</v>
@@ -1666,20 +1651,22 @@
       <c r="E18" s="25">
         <v>10</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="26">
         <v>10</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="26">
         <v>8</v>
@@ -1715,7 +1702,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>55</v>
@@ -1724,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1732,10 +1719,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>38</v>
@@ -1750,10 +1737,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>55</v>
@@ -1786,10 +1773,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>19</v>
@@ -1798,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32.4">
@@ -1806,10 +1793,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>19</v>
@@ -1818,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="307.8">
@@ -1826,10 +1813,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>19</v>
@@ -1838,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1846,10 +1833,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>38</v>
@@ -1858,7 +1845,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1866,10 +1853,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>55</v>
@@ -1878,7 +1865,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1898,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1909,7 +1896,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>55</v>
@@ -1918,7 +1905,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="226.8">
@@ -1938,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1949,7 +1936,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>20</v>
@@ -1957,17 +1944,19 @@
       <c r="E33" s="26">
         <v>100</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="23" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="26">
         <v>25</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>19</v>
@@ -1975,7 +1964,9 @@
       <c r="E34" s="26">
         <v>10</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="23" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="26">
@@ -1985,7 +1976,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>55</v>
@@ -1993,9 +1984,11 @@
       <c r="E35" s="25">
         <v>8</v>
       </c>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="32.4">
       <c r="A36" s="26">
         <v>27</v>
       </c>
@@ -2003,7 +1996,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>19</v>
@@ -2011,8 +2004,8 @@
       <c r="E36" s="26">
         <v>1</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>154</v>
+      <c r="G36" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="64.8">
@@ -2020,19 +2013,19 @@
         <v>28</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" s="26">
         <v>1</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2040,10 +2033,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>19</v>
@@ -2061,7 +2054,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>53</v>
@@ -2095,7 +2088,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>53</v>
@@ -2166,10 +2159,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2188,7 +2181,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2199,7 +2192,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2207,7 +2200,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>56</v>
@@ -2215,10 +2208,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>56</v>
@@ -2226,124 +2219,124 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLogHistory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87676E80-5494-465C-AFAF-337CE0B441F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B411058-2463-4AC5-B495-F0E056C438DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -221,10 +221,6 @@
   <si>
     <t>RetrDate &gt;= ,AND RetrDate &lt;=</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>申請代號，狀態碼</t>
@@ -710,12 +706,15 @@
     <t>扣款人ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1340,11 +1339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1355,26 +1354,26 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1383,13 +1382,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1398,7 +1397,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -1409,59 +1408,59 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="5"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1484,24 +1483,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <v>1</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="35"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <v>2</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>38</v>
@@ -1519,25 +1518,25 @@
       </c>
       <c r="G11" s="27"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>3</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="26">
         <v>3</v>
       </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" ht="48.6">
+    <row r="13" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>4</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>19</v>
@@ -1554,30 +1553,30 @@
         <v>1</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>5</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="25">
         <v>8</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="113.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>6</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>19</v>
@@ -1594,15 +1593,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="48.6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>7</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>26</v>
@@ -1614,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>8</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>19</v>
@@ -1635,7 +1634,7 @@
       </c>
       <c r="G17" s="27"/>
     </row>
-    <row r="18" spans="1:7" ht="32.4">
+    <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>9</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>19</v>
@@ -1652,21 +1651,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>10</v>
       </c>
       <c r="B19" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>156</v>
-      </c>
       <c r="D19" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="26">
         <v>8</v>
@@ -1676,7 +1675,7 @@
       </c>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>11</v>
       </c>
@@ -1694,7 +1693,7 @@
       </c>
       <c r="G20" s="27"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>12</v>
       </c>
@@ -1702,27 +1701,27 @@
         <v>31</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="25">
         <v>8</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>13</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>38</v>
@@ -1732,25 +1731,25 @@
       </c>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>14</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="25">
         <v>8</v>
       </c>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>15</v>
       </c>
@@ -1761,22 +1760,22 @@
         <v>28</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="25">
         <v>8</v>
       </c>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="97.2">
+    <row r="25" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>16</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>19</v>
@@ -1785,18 +1784,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <v>17</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>19</v>
@@ -1805,18 +1804,18 @@
         <v>1</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="307.8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="307.8" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>18</v>
       </c>
       <c r="B27" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>19</v>
@@ -1825,18 +1824,18 @@
         <v>2</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>38</v>
@@ -1845,30 +1844,30 @@
         <v>6</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>20</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="25">
         <v>8</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>21</v>
       </c>
@@ -1879,16 +1878,16 @@
         <v>36</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="25">
         <v>8</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>22</v>
       </c>
@@ -1896,19 +1895,19 @@
         <v>42</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="25">
         <v>8</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="226.8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>23</v>
       </c>
@@ -1925,10 +1924,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
         <v>24</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>20</v>
@@ -1945,18 +1944,18 @@
         <v>100</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>25</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>19</v>
@@ -1965,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>26</v>
       </c>
@@ -1976,19 +1975,19 @@
         <v>24</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="25">
         <v>8</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="32.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>27</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>19</v>
@@ -2005,38 +2004,38 @@
         <v>1</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="64.8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A37" s="26">
         <v>28</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="26">
         <v>1</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="26">
         <v>29</v>
       </c>
       <c r="B38" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>19</v>
@@ -2046,7 +2045,7 @@
       </c>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="26">
         <v>30</v>
       </c>
@@ -2054,15 +2053,15 @@
         <v>21</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="E39" s="25"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>31</v>
       </c>
@@ -2080,7 +2079,7 @@
       </c>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>32</v>
       </c>
@@ -2088,10 +2087,10 @@
         <v>22</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="E41" s="25"/>
       <c r="G41" s="18"/>
@@ -2122,7 +2121,7 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="116.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -2130,7 +2129,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2141,15 +2140,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -2157,15 +2156,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -2181,10 +2180,10 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>51</v>
       </c>
@@ -2192,151 +2191,151 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
